--- a/Totalligent.UI/Uploads/HospitalMaster.xlsx
+++ b/Totalligent.UI/Uploads/HospitalMaster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Downloads\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guru\Documents\Visual Studio 2017\Projects\TotalligentProject\Totalligent.UI\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D070656-07A2-4E90-A4F7-701653D37510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA04CC5-E83A-447E-BEC7-18BFAE2BE2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6AAE046E-C136-4222-A1E3-F019F3BBDED6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Zipcode</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Padur</t>
+  </si>
+  <si>
+    <t>Band A</t>
+  </si>
+  <si>
+    <t>Band C</t>
+  </si>
+  <si>
+    <t>Band B</t>
+  </si>
+  <si>
+    <t>Band</t>
   </si>
 </sst>
 </file>
@@ -516,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C431FF-39D5-4E44-9EE8-AB3F1A4328CA}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +545,7 @@
     <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -584,8 +599,11 @@
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -610,8 +628,11 @@
       <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -636,8 +657,11 @@
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -662,8 +686,11 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -687,6 +714,9 @@
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
